--- a/guardchangepassword.xlsx
+++ b/guardchangepassword.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
   <si>
     <t>Test case number</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>view the emergency link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be able to type the password </t>
   </si>
 </sst>
 </file>
@@ -592,7 +595,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:F49"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +749,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
